--- a/salary来来来 - 副本.xlsx
+++ b/salary来来来 - 副本.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\salary_email\salary_email\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\s_mail\salary_email\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938D07FE-B13B-4ED2-8689-263F8EBD443D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA30B8D8-6A06-4C93-A4CA-3950F1677D91}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>姓名</t>
   </si>
@@ -1022,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1115,6 +1115,44 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="F3">
+        <v>11000</v>
+      </c>
+      <c r="G3">
+        <v>880</v>
+      </c>
+      <c r="H3">
+        <v>55</v>
+      </c>
+      <c r="I3">
+        <v>220</v>
+      </c>
+      <c r="J3">
+        <v>770</v>
+      </c>
+      <c r="L3">
+        <v>9075</v>
+      </c>
+      <c r="M3">
+        <v>560</v>
+      </c>
+      <c r="N3">
+        <v>8515</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
